--- a/RELATORIO DE OBRAS POR GESTORES E FISCAIS.xlsx
+++ b/RELATORIO DE OBRAS POR GESTORES E FISCAIS.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="B32" s="2" t="n"/>
       <c r="C32" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
       </c>
       <c r="B35" s="2" t="n"/>
       <c r="C35" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
